--- a/files/Шаблон/Единая_форма_отчета.xlsx
+++ b/files/Шаблон/Единая_форма_отчета.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BADA7-047D-42B5-9607-AB4D994ED874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="4" r:id="rId1"/>
@@ -138,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -420,12 +419,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,6 +433,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,10 +885,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1008"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
@@ -931,15 +930,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -947,15 +946,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -963,15 +962,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -979,15 +978,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -995,15 +994,15 @@
         <v>8</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1011,15 +1010,15 @@
         <v>10</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,15 +1026,15 @@
         <v>11</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -1043,15 +1042,15 @@
         <v>12</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -1059,41 +1058,41 @@
         <v>14</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="K11" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
         <v>20</v>
@@ -1101,8 +1100,8 @@
       <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1118,27 +1117,27 @@
       <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:21" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1148,19 +1147,19 @@
       <c r="G16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1172,13 +1171,13 @@
       <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
     </row>
@@ -17040,267 +17039,744 @@
     </row>
   </sheetData>
   <mergeCells count="1031">
-    <mergeCell ref="M248:N248"/>
-    <mergeCell ref="M249:N249"/>
-    <mergeCell ref="M250:N250"/>
-    <mergeCell ref="M251:N251"/>
-    <mergeCell ref="M252:N252"/>
-    <mergeCell ref="M243:N243"/>
-    <mergeCell ref="M244:N244"/>
-    <mergeCell ref="M245:N245"/>
-    <mergeCell ref="M246:N246"/>
-    <mergeCell ref="M247:N247"/>
-    <mergeCell ref="M258:N258"/>
-    <mergeCell ref="M259:N259"/>
-    <mergeCell ref="M260:N260"/>
-    <mergeCell ref="M261:N261"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="M254:N254"/>
-    <mergeCell ref="M255:N255"/>
-    <mergeCell ref="M256:N256"/>
-    <mergeCell ref="M257:N257"/>
-    <mergeCell ref="M228:N228"/>
-    <mergeCell ref="M229:N229"/>
-    <mergeCell ref="M230:N230"/>
-    <mergeCell ref="M231:N231"/>
-    <mergeCell ref="M232:N232"/>
-    <mergeCell ref="M223:N223"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="M225:N225"/>
-    <mergeCell ref="M226:N226"/>
-    <mergeCell ref="M227:N227"/>
-    <mergeCell ref="M238:N238"/>
-    <mergeCell ref="M239:N239"/>
-    <mergeCell ref="M240:N240"/>
-    <mergeCell ref="M241:N241"/>
-    <mergeCell ref="M242:N242"/>
-    <mergeCell ref="M233:N233"/>
-    <mergeCell ref="M234:N234"/>
-    <mergeCell ref="M235:N235"/>
-    <mergeCell ref="M236:N236"/>
-    <mergeCell ref="M237:N237"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="M209:N209"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="M220:N220"/>
-    <mergeCell ref="M221:N221"/>
-    <mergeCell ref="M222:N222"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="M214:N214"/>
-    <mergeCell ref="M215:N215"/>
-    <mergeCell ref="M216:N216"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M14:N17"/>
+    <mergeCell ref="M1000:N1000"/>
+    <mergeCell ref="M1001:N1001"/>
+    <mergeCell ref="M1002:N1002"/>
+    <mergeCell ref="M1003:N1003"/>
+    <mergeCell ref="M1004:N1004"/>
+    <mergeCell ref="M1005:N1005"/>
+    <mergeCell ref="M1006:N1006"/>
+    <mergeCell ref="M1007:N1007"/>
+    <mergeCell ref="M1008:N1008"/>
+    <mergeCell ref="M991:N991"/>
+    <mergeCell ref="M992:N992"/>
+    <mergeCell ref="M993:N993"/>
+    <mergeCell ref="M994:N994"/>
+    <mergeCell ref="M995:N995"/>
+    <mergeCell ref="M996:N996"/>
+    <mergeCell ref="M997:N997"/>
+    <mergeCell ref="M998:N998"/>
+    <mergeCell ref="M999:N999"/>
+    <mergeCell ref="M982:N982"/>
+    <mergeCell ref="M983:N983"/>
+    <mergeCell ref="M984:N984"/>
+    <mergeCell ref="M985:N985"/>
+    <mergeCell ref="M986:N986"/>
+    <mergeCell ref="M987:N987"/>
+    <mergeCell ref="M988:N988"/>
+    <mergeCell ref="M989:N989"/>
+    <mergeCell ref="M990:N990"/>
+    <mergeCell ref="M973:N973"/>
+    <mergeCell ref="M974:N974"/>
+    <mergeCell ref="M975:N975"/>
+    <mergeCell ref="M976:N976"/>
+    <mergeCell ref="M977:N977"/>
+    <mergeCell ref="M978:N978"/>
+    <mergeCell ref="M979:N979"/>
+    <mergeCell ref="M980:N980"/>
+    <mergeCell ref="M981:N981"/>
+    <mergeCell ref="M964:N964"/>
+    <mergeCell ref="M965:N965"/>
+    <mergeCell ref="M966:N966"/>
+    <mergeCell ref="M967:N967"/>
+    <mergeCell ref="M968:N968"/>
+    <mergeCell ref="M969:N969"/>
+    <mergeCell ref="M970:N970"/>
+    <mergeCell ref="M971:N971"/>
+    <mergeCell ref="M972:N972"/>
+    <mergeCell ref="M955:N955"/>
+    <mergeCell ref="M956:N956"/>
+    <mergeCell ref="M957:N957"/>
+    <mergeCell ref="M958:N958"/>
+    <mergeCell ref="M959:N959"/>
+    <mergeCell ref="M960:N960"/>
+    <mergeCell ref="M961:N961"/>
+    <mergeCell ref="M962:N962"/>
+    <mergeCell ref="M963:N963"/>
+    <mergeCell ref="M946:N946"/>
+    <mergeCell ref="M947:N947"/>
+    <mergeCell ref="M948:N948"/>
+    <mergeCell ref="M949:N949"/>
+    <mergeCell ref="M950:N950"/>
+    <mergeCell ref="M951:N951"/>
+    <mergeCell ref="M952:N952"/>
+    <mergeCell ref="M953:N953"/>
+    <mergeCell ref="M954:N954"/>
+    <mergeCell ref="M937:N937"/>
+    <mergeCell ref="M938:N938"/>
+    <mergeCell ref="M939:N939"/>
+    <mergeCell ref="M940:N940"/>
+    <mergeCell ref="M941:N941"/>
+    <mergeCell ref="M942:N942"/>
+    <mergeCell ref="M943:N943"/>
+    <mergeCell ref="M944:N944"/>
+    <mergeCell ref="M945:N945"/>
+    <mergeCell ref="M928:N928"/>
+    <mergeCell ref="M929:N929"/>
+    <mergeCell ref="M930:N930"/>
+    <mergeCell ref="M931:N931"/>
+    <mergeCell ref="M932:N932"/>
+    <mergeCell ref="M933:N933"/>
+    <mergeCell ref="M934:N934"/>
+    <mergeCell ref="M935:N935"/>
+    <mergeCell ref="M936:N936"/>
+    <mergeCell ref="M919:N919"/>
+    <mergeCell ref="M920:N920"/>
+    <mergeCell ref="M921:N921"/>
+    <mergeCell ref="M922:N922"/>
+    <mergeCell ref="M923:N923"/>
+    <mergeCell ref="M924:N924"/>
+    <mergeCell ref="M925:N925"/>
+    <mergeCell ref="M926:N926"/>
+    <mergeCell ref="M927:N927"/>
+    <mergeCell ref="M910:N910"/>
+    <mergeCell ref="M911:N911"/>
+    <mergeCell ref="M912:N912"/>
+    <mergeCell ref="M913:N913"/>
+    <mergeCell ref="M914:N914"/>
+    <mergeCell ref="M915:N915"/>
+    <mergeCell ref="M916:N916"/>
+    <mergeCell ref="M917:N917"/>
+    <mergeCell ref="M918:N918"/>
+    <mergeCell ref="M901:N901"/>
+    <mergeCell ref="M902:N902"/>
+    <mergeCell ref="M903:N903"/>
+    <mergeCell ref="M904:N904"/>
+    <mergeCell ref="M905:N905"/>
+    <mergeCell ref="M906:N906"/>
+    <mergeCell ref="M907:N907"/>
+    <mergeCell ref="M908:N908"/>
+    <mergeCell ref="M909:N909"/>
+    <mergeCell ref="M892:N892"/>
+    <mergeCell ref="M893:N893"/>
+    <mergeCell ref="M894:N894"/>
+    <mergeCell ref="M895:N895"/>
+    <mergeCell ref="M896:N896"/>
+    <mergeCell ref="M897:N897"/>
+    <mergeCell ref="M898:N898"/>
+    <mergeCell ref="M899:N899"/>
+    <mergeCell ref="M900:N900"/>
+    <mergeCell ref="M883:N883"/>
+    <mergeCell ref="M884:N884"/>
+    <mergeCell ref="M885:N885"/>
+    <mergeCell ref="M886:N886"/>
+    <mergeCell ref="M887:N887"/>
+    <mergeCell ref="M888:N888"/>
+    <mergeCell ref="M889:N889"/>
+    <mergeCell ref="M890:N890"/>
+    <mergeCell ref="M891:N891"/>
+    <mergeCell ref="M874:N874"/>
+    <mergeCell ref="M875:N875"/>
+    <mergeCell ref="M876:N876"/>
+    <mergeCell ref="M877:N877"/>
+    <mergeCell ref="M878:N878"/>
+    <mergeCell ref="M879:N879"/>
+    <mergeCell ref="M880:N880"/>
+    <mergeCell ref="M881:N881"/>
+    <mergeCell ref="M882:N882"/>
+    <mergeCell ref="M865:N865"/>
+    <mergeCell ref="M866:N866"/>
+    <mergeCell ref="M867:N867"/>
+    <mergeCell ref="M868:N868"/>
+    <mergeCell ref="M869:N869"/>
+    <mergeCell ref="M870:N870"/>
+    <mergeCell ref="M871:N871"/>
+    <mergeCell ref="M872:N872"/>
+    <mergeCell ref="M873:N873"/>
+    <mergeCell ref="M856:N856"/>
+    <mergeCell ref="M857:N857"/>
+    <mergeCell ref="M858:N858"/>
+    <mergeCell ref="M859:N859"/>
+    <mergeCell ref="M860:N860"/>
+    <mergeCell ref="M861:N861"/>
+    <mergeCell ref="M862:N862"/>
+    <mergeCell ref="M863:N863"/>
+    <mergeCell ref="M864:N864"/>
+    <mergeCell ref="M847:N847"/>
+    <mergeCell ref="M848:N848"/>
+    <mergeCell ref="M849:N849"/>
+    <mergeCell ref="M850:N850"/>
+    <mergeCell ref="M851:N851"/>
+    <mergeCell ref="M852:N852"/>
+    <mergeCell ref="M853:N853"/>
+    <mergeCell ref="M854:N854"/>
+    <mergeCell ref="M855:N855"/>
+    <mergeCell ref="M838:N838"/>
+    <mergeCell ref="M839:N839"/>
+    <mergeCell ref="M840:N840"/>
+    <mergeCell ref="M841:N841"/>
+    <mergeCell ref="M842:N842"/>
+    <mergeCell ref="M843:N843"/>
+    <mergeCell ref="M844:N844"/>
+    <mergeCell ref="M845:N845"/>
+    <mergeCell ref="M846:N846"/>
+    <mergeCell ref="M829:N829"/>
+    <mergeCell ref="M830:N830"/>
+    <mergeCell ref="M831:N831"/>
+    <mergeCell ref="M832:N832"/>
+    <mergeCell ref="M833:N833"/>
+    <mergeCell ref="M834:N834"/>
+    <mergeCell ref="M835:N835"/>
+    <mergeCell ref="M836:N836"/>
+    <mergeCell ref="M837:N837"/>
+    <mergeCell ref="M820:N820"/>
+    <mergeCell ref="M821:N821"/>
+    <mergeCell ref="M822:N822"/>
+    <mergeCell ref="M823:N823"/>
+    <mergeCell ref="M824:N824"/>
+    <mergeCell ref="M825:N825"/>
+    <mergeCell ref="M826:N826"/>
+    <mergeCell ref="M827:N827"/>
+    <mergeCell ref="M828:N828"/>
+    <mergeCell ref="M811:N811"/>
+    <mergeCell ref="M812:N812"/>
+    <mergeCell ref="M813:N813"/>
+    <mergeCell ref="M814:N814"/>
+    <mergeCell ref="M815:N815"/>
+    <mergeCell ref="M816:N816"/>
+    <mergeCell ref="M817:N817"/>
+    <mergeCell ref="M818:N818"/>
+    <mergeCell ref="M819:N819"/>
+    <mergeCell ref="M802:N802"/>
+    <mergeCell ref="M803:N803"/>
+    <mergeCell ref="M804:N804"/>
+    <mergeCell ref="M805:N805"/>
+    <mergeCell ref="M806:N806"/>
+    <mergeCell ref="M807:N807"/>
+    <mergeCell ref="M808:N808"/>
+    <mergeCell ref="M809:N809"/>
+    <mergeCell ref="M810:N810"/>
+    <mergeCell ref="M793:N793"/>
+    <mergeCell ref="M794:N794"/>
+    <mergeCell ref="M795:N795"/>
+    <mergeCell ref="M796:N796"/>
+    <mergeCell ref="M797:N797"/>
+    <mergeCell ref="M798:N798"/>
+    <mergeCell ref="M799:N799"/>
+    <mergeCell ref="M800:N800"/>
+    <mergeCell ref="M801:N801"/>
+    <mergeCell ref="M784:N784"/>
+    <mergeCell ref="M785:N785"/>
+    <mergeCell ref="M786:N786"/>
+    <mergeCell ref="M787:N787"/>
+    <mergeCell ref="M788:N788"/>
+    <mergeCell ref="M789:N789"/>
+    <mergeCell ref="M790:N790"/>
+    <mergeCell ref="M791:N791"/>
+    <mergeCell ref="M792:N792"/>
+    <mergeCell ref="M775:N775"/>
+    <mergeCell ref="M776:N776"/>
+    <mergeCell ref="M777:N777"/>
+    <mergeCell ref="M778:N778"/>
+    <mergeCell ref="M779:N779"/>
+    <mergeCell ref="M780:N780"/>
+    <mergeCell ref="M781:N781"/>
+    <mergeCell ref="M782:N782"/>
+    <mergeCell ref="M783:N783"/>
+    <mergeCell ref="M766:N766"/>
+    <mergeCell ref="M767:N767"/>
+    <mergeCell ref="M768:N768"/>
+    <mergeCell ref="M769:N769"/>
+    <mergeCell ref="M770:N770"/>
+    <mergeCell ref="M771:N771"/>
+    <mergeCell ref="M772:N772"/>
+    <mergeCell ref="M773:N773"/>
+    <mergeCell ref="M774:N774"/>
+    <mergeCell ref="M757:N757"/>
+    <mergeCell ref="M758:N758"/>
+    <mergeCell ref="M759:N759"/>
+    <mergeCell ref="M760:N760"/>
+    <mergeCell ref="M761:N761"/>
+    <mergeCell ref="M762:N762"/>
+    <mergeCell ref="M763:N763"/>
+    <mergeCell ref="M764:N764"/>
+    <mergeCell ref="M765:N765"/>
+    <mergeCell ref="M748:N748"/>
+    <mergeCell ref="M749:N749"/>
+    <mergeCell ref="M750:N750"/>
+    <mergeCell ref="M751:N751"/>
+    <mergeCell ref="M752:N752"/>
+    <mergeCell ref="M753:N753"/>
+    <mergeCell ref="M754:N754"/>
+    <mergeCell ref="M755:N755"/>
+    <mergeCell ref="M756:N756"/>
+    <mergeCell ref="M739:N739"/>
+    <mergeCell ref="M740:N740"/>
+    <mergeCell ref="M741:N741"/>
+    <mergeCell ref="M742:N742"/>
+    <mergeCell ref="M743:N743"/>
+    <mergeCell ref="M744:N744"/>
+    <mergeCell ref="M745:N745"/>
+    <mergeCell ref="M746:N746"/>
+    <mergeCell ref="M747:N747"/>
+    <mergeCell ref="M730:N730"/>
+    <mergeCell ref="M731:N731"/>
+    <mergeCell ref="M732:N732"/>
+    <mergeCell ref="M733:N733"/>
+    <mergeCell ref="M734:N734"/>
+    <mergeCell ref="M735:N735"/>
+    <mergeCell ref="M736:N736"/>
+    <mergeCell ref="M737:N737"/>
+    <mergeCell ref="M738:N738"/>
+    <mergeCell ref="M721:N721"/>
+    <mergeCell ref="M722:N722"/>
+    <mergeCell ref="M723:N723"/>
+    <mergeCell ref="M724:N724"/>
+    <mergeCell ref="M725:N725"/>
+    <mergeCell ref="M726:N726"/>
+    <mergeCell ref="M727:N727"/>
+    <mergeCell ref="M728:N728"/>
+    <mergeCell ref="M729:N729"/>
+    <mergeCell ref="M712:N712"/>
+    <mergeCell ref="M713:N713"/>
+    <mergeCell ref="M714:N714"/>
+    <mergeCell ref="M715:N715"/>
+    <mergeCell ref="M716:N716"/>
+    <mergeCell ref="M717:N717"/>
+    <mergeCell ref="M718:N718"/>
+    <mergeCell ref="M719:N719"/>
+    <mergeCell ref="M720:N720"/>
+    <mergeCell ref="M703:N703"/>
+    <mergeCell ref="M704:N704"/>
+    <mergeCell ref="M705:N705"/>
+    <mergeCell ref="M706:N706"/>
+    <mergeCell ref="M707:N707"/>
+    <mergeCell ref="M708:N708"/>
+    <mergeCell ref="M709:N709"/>
+    <mergeCell ref="M710:N710"/>
+    <mergeCell ref="M711:N711"/>
+    <mergeCell ref="M694:N694"/>
+    <mergeCell ref="M695:N695"/>
+    <mergeCell ref="M696:N696"/>
+    <mergeCell ref="M697:N697"/>
+    <mergeCell ref="M698:N698"/>
+    <mergeCell ref="M699:N699"/>
+    <mergeCell ref="M700:N700"/>
+    <mergeCell ref="M701:N701"/>
+    <mergeCell ref="M702:N702"/>
+    <mergeCell ref="M685:N685"/>
+    <mergeCell ref="M686:N686"/>
+    <mergeCell ref="M687:N687"/>
+    <mergeCell ref="M688:N688"/>
+    <mergeCell ref="M689:N689"/>
+    <mergeCell ref="M690:N690"/>
+    <mergeCell ref="M691:N691"/>
+    <mergeCell ref="M692:N692"/>
+    <mergeCell ref="M693:N693"/>
+    <mergeCell ref="M676:N676"/>
+    <mergeCell ref="M677:N677"/>
+    <mergeCell ref="M678:N678"/>
+    <mergeCell ref="M679:N679"/>
+    <mergeCell ref="M680:N680"/>
+    <mergeCell ref="M681:N681"/>
+    <mergeCell ref="M682:N682"/>
+    <mergeCell ref="M683:N683"/>
+    <mergeCell ref="M684:N684"/>
+    <mergeCell ref="M667:N667"/>
+    <mergeCell ref="M668:N668"/>
+    <mergeCell ref="M669:N669"/>
+    <mergeCell ref="M670:N670"/>
+    <mergeCell ref="M671:N671"/>
+    <mergeCell ref="M672:N672"/>
+    <mergeCell ref="M673:N673"/>
+    <mergeCell ref="M674:N674"/>
+    <mergeCell ref="M675:N675"/>
+    <mergeCell ref="M658:N658"/>
+    <mergeCell ref="M659:N659"/>
+    <mergeCell ref="M660:N660"/>
+    <mergeCell ref="M661:N661"/>
+    <mergeCell ref="M662:N662"/>
+    <mergeCell ref="M663:N663"/>
+    <mergeCell ref="M664:N664"/>
+    <mergeCell ref="M665:N665"/>
+    <mergeCell ref="M666:N666"/>
+    <mergeCell ref="M649:N649"/>
+    <mergeCell ref="M650:N650"/>
+    <mergeCell ref="M651:N651"/>
+    <mergeCell ref="M652:N652"/>
+    <mergeCell ref="M653:N653"/>
+    <mergeCell ref="M654:N654"/>
+    <mergeCell ref="M655:N655"/>
+    <mergeCell ref="M656:N656"/>
+    <mergeCell ref="M657:N657"/>
+    <mergeCell ref="M640:N640"/>
+    <mergeCell ref="M641:N641"/>
+    <mergeCell ref="M642:N642"/>
+    <mergeCell ref="M643:N643"/>
+    <mergeCell ref="M644:N644"/>
+    <mergeCell ref="M645:N645"/>
+    <mergeCell ref="M646:N646"/>
+    <mergeCell ref="M647:N647"/>
+    <mergeCell ref="M648:N648"/>
+    <mergeCell ref="M631:N631"/>
+    <mergeCell ref="M632:N632"/>
+    <mergeCell ref="M633:N633"/>
+    <mergeCell ref="M634:N634"/>
+    <mergeCell ref="M635:N635"/>
+    <mergeCell ref="M636:N636"/>
+    <mergeCell ref="M637:N637"/>
+    <mergeCell ref="M638:N638"/>
+    <mergeCell ref="M639:N639"/>
+    <mergeCell ref="M622:N622"/>
+    <mergeCell ref="M623:N623"/>
+    <mergeCell ref="M624:N624"/>
+    <mergeCell ref="M625:N625"/>
+    <mergeCell ref="M626:N626"/>
+    <mergeCell ref="M627:N627"/>
+    <mergeCell ref="M628:N628"/>
+    <mergeCell ref="M629:N629"/>
+    <mergeCell ref="M630:N630"/>
+    <mergeCell ref="M613:N613"/>
+    <mergeCell ref="M614:N614"/>
+    <mergeCell ref="M615:N615"/>
+    <mergeCell ref="M616:N616"/>
+    <mergeCell ref="M617:N617"/>
+    <mergeCell ref="M618:N618"/>
+    <mergeCell ref="M619:N619"/>
+    <mergeCell ref="M620:N620"/>
+    <mergeCell ref="M621:N621"/>
+    <mergeCell ref="M604:N604"/>
+    <mergeCell ref="M605:N605"/>
+    <mergeCell ref="M606:N606"/>
+    <mergeCell ref="M607:N607"/>
+    <mergeCell ref="M608:N608"/>
+    <mergeCell ref="M609:N609"/>
+    <mergeCell ref="M610:N610"/>
+    <mergeCell ref="M611:N611"/>
+    <mergeCell ref="M612:N612"/>
+    <mergeCell ref="M595:N595"/>
+    <mergeCell ref="M596:N596"/>
+    <mergeCell ref="M597:N597"/>
+    <mergeCell ref="M598:N598"/>
+    <mergeCell ref="M599:N599"/>
+    <mergeCell ref="M600:N600"/>
+    <mergeCell ref="M601:N601"/>
+    <mergeCell ref="M602:N602"/>
+    <mergeCell ref="M603:N603"/>
+    <mergeCell ref="M586:N586"/>
+    <mergeCell ref="M587:N587"/>
+    <mergeCell ref="M588:N588"/>
+    <mergeCell ref="M589:N589"/>
+    <mergeCell ref="M590:N590"/>
+    <mergeCell ref="M591:N591"/>
+    <mergeCell ref="M592:N592"/>
+    <mergeCell ref="M593:N593"/>
+    <mergeCell ref="M594:N594"/>
+    <mergeCell ref="M577:N577"/>
+    <mergeCell ref="M578:N578"/>
+    <mergeCell ref="M579:N579"/>
+    <mergeCell ref="M580:N580"/>
+    <mergeCell ref="M581:N581"/>
+    <mergeCell ref="M582:N582"/>
+    <mergeCell ref="M583:N583"/>
+    <mergeCell ref="M584:N584"/>
+    <mergeCell ref="M585:N585"/>
+    <mergeCell ref="M568:N568"/>
+    <mergeCell ref="M569:N569"/>
+    <mergeCell ref="M570:N570"/>
+    <mergeCell ref="M571:N571"/>
+    <mergeCell ref="M572:N572"/>
+    <mergeCell ref="M573:N573"/>
+    <mergeCell ref="M574:N574"/>
+    <mergeCell ref="M575:N575"/>
+    <mergeCell ref="M576:N576"/>
+    <mergeCell ref="M559:N559"/>
+    <mergeCell ref="M560:N560"/>
+    <mergeCell ref="M561:N561"/>
+    <mergeCell ref="M562:N562"/>
+    <mergeCell ref="M563:N563"/>
+    <mergeCell ref="M564:N564"/>
+    <mergeCell ref="M565:N565"/>
+    <mergeCell ref="M566:N566"/>
+    <mergeCell ref="M567:N567"/>
+    <mergeCell ref="M550:N550"/>
+    <mergeCell ref="M551:N551"/>
+    <mergeCell ref="M552:N552"/>
+    <mergeCell ref="M553:N553"/>
+    <mergeCell ref="M554:N554"/>
+    <mergeCell ref="M555:N555"/>
+    <mergeCell ref="M556:N556"/>
+    <mergeCell ref="M557:N557"/>
+    <mergeCell ref="M558:N558"/>
+    <mergeCell ref="M541:N541"/>
+    <mergeCell ref="M542:N542"/>
+    <mergeCell ref="M543:N543"/>
+    <mergeCell ref="M544:N544"/>
+    <mergeCell ref="M545:N545"/>
+    <mergeCell ref="M546:N546"/>
+    <mergeCell ref="M547:N547"/>
+    <mergeCell ref="M548:N548"/>
+    <mergeCell ref="M549:N549"/>
+    <mergeCell ref="M532:N532"/>
+    <mergeCell ref="M533:N533"/>
+    <mergeCell ref="M534:N534"/>
+    <mergeCell ref="M535:N535"/>
+    <mergeCell ref="M536:N536"/>
+    <mergeCell ref="M537:N537"/>
+    <mergeCell ref="M538:N538"/>
+    <mergeCell ref="M539:N539"/>
+    <mergeCell ref="M540:N540"/>
+    <mergeCell ref="M523:N523"/>
+    <mergeCell ref="M524:N524"/>
+    <mergeCell ref="M525:N525"/>
+    <mergeCell ref="M526:N526"/>
+    <mergeCell ref="M527:N527"/>
+    <mergeCell ref="M528:N528"/>
+    <mergeCell ref="M529:N529"/>
+    <mergeCell ref="M530:N530"/>
+    <mergeCell ref="M531:N531"/>
+    <mergeCell ref="M514:N514"/>
+    <mergeCell ref="M515:N515"/>
+    <mergeCell ref="M516:N516"/>
+    <mergeCell ref="M517:N517"/>
+    <mergeCell ref="M518:N518"/>
+    <mergeCell ref="M519:N519"/>
+    <mergeCell ref="M520:N520"/>
+    <mergeCell ref="M521:N521"/>
+    <mergeCell ref="M522:N522"/>
+    <mergeCell ref="M505:N505"/>
+    <mergeCell ref="M506:N506"/>
+    <mergeCell ref="M507:N507"/>
+    <mergeCell ref="M508:N508"/>
+    <mergeCell ref="M509:N509"/>
+    <mergeCell ref="M510:N510"/>
+    <mergeCell ref="M511:N511"/>
+    <mergeCell ref="M512:N512"/>
+    <mergeCell ref="M513:N513"/>
+    <mergeCell ref="M496:N496"/>
+    <mergeCell ref="M497:N497"/>
+    <mergeCell ref="M498:N498"/>
+    <mergeCell ref="M499:N499"/>
+    <mergeCell ref="M500:N500"/>
+    <mergeCell ref="M501:N501"/>
+    <mergeCell ref="M502:N502"/>
+    <mergeCell ref="M503:N503"/>
+    <mergeCell ref="M504:N504"/>
+    <mergeCell ref="M487:N487"/>
+    <mergeCell ref="M488:N488"/>
+    <mergeCell ref="M489:N489"/>
+    <mergeCell ref="M490:N490"/>
+    <mergeCell ref="M491:N491"/>
+    <mergeCell ref="M492:N492"/>
+    <mergeCell ref="M493:N493"/>
+    <mergeCell ref="M494:N494"/>
+    <mergeCell ref="M495:N495"/>
+    <mergeCell ref="M478:N478"/>
+    <mergeCell ref="M479:N479"/>
+    <mergeCell ref="M480:N480"/>
+    <mergeCell ref="M481:N481"/>
+    <mergeCell ref="M482:N482"/>
+    <mergeCell ref="M483:N483"/>
+    <mergeCell ref="M484:N484"/>
+    <mergeCell ref="M485:N485"/>
+    <mergeCell ref="M486:N486"/>
+    <mergeCell ref="M469:N469"/>
+    <mergeCell ref="M470:N470"/>
+    <mergeCell ref="M471:N471"/>
+    <mergeCell ref="M472:N472"/>
+    <mergeCell ref="M473:N473"/>
+    <mergeCell ref="M474:N474"/>
+    <mergeCell ref="M475:N475"/>
+    <mergeCell ref="M476:N476"/>
+    <mergeCell ref="M477:N477"/>
+    <mergeCell ref="M460:N460"/>
+    <mergeCell ref="M461:N461"/>
+    <mergeCell ref="M462:N462"/>
+    <mergeCell ref="M463:N463"/>
+    <mergeCell ref="M464:N464"/>
+    <mergeCell ref="M465:N465"/>
+    <mergeCell ref="M466:N466"/>
+    <mergeCell ref="M467:N467"/>
+    <mergeCell ref="M468:N468"/>
+    <mergeCell ref="M451:N451"/>
+    <mergeCell ref="M452:N452"/>
+    <mergeCell ref="M453:N453"/>
+    <mergeCell ref="M454:N454"/>
+    <mergeCell ref="M455:N455"/>
+    <mergeCell ref="M456:N456"/>
+    <mergeCell ref="M457:N457"/>
+    <mergeCell ref="M458:N458"/>
+    <mergeCell ref="M459:N459"/>
+    <mergeCell ref="M442:N442"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="M444:N444"/>
+    <mergeCell ref="M445:N445"/>
+    <mergeCell ref="M446:N446"/>
+    <mergeCell ref="M447:N447"/>
+    <mergeCell ref="M448:N448"/>
+    <mergeCell ref="M449:N449"/>
+    <mergeCell ref="M450:N450"/>
+    <mergeCell ref="M433:N433"/>
+    <mergeCell ref="M434:N434"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="M438:N438"/>
+    <mergeCell ref="M439:N439"/>
+    <mergeCell ref="M440:N440"/>
+    <mergeCell ref="M441:N441"/>
+    <mergeCell ref="M424:N424"/>
+    <mergeCell ref="M425:N425"/>
+    <mergeCell ref="M426:N426"/>
+    <mergeCell ref="M427:N427"/>
+    <mergeCell ref="M428:N428"/>
+    <mergeCell ref="M429:N429"/>
+    <mergeCell ref="M430:N430"/>
+    <mergeCell ref="M431:N431"/>
+    <mergeCell ref="M432:N432"/>
+    <mergeCell ref="M415:N415"/>
+    <mergeCell ref="M416:N416"/>
+    <mergeCell ref="M417:N417"/>
+    <mergeCell ref="M418:N418"/>
+    <mergeCell ref="M419:N419"/>
+    <mergeCell ref="M420:N420"/>
+    <mergeCell ref="M421:N421"/>
+    <mergeCell ref="M422:N422"/>
+    <mergeCell ref="M423:N423"/>
+    <mergeCell ref="M406:N406"/>
+    <mergeCell ref="M407:N407"/>
+    <mergeCell ref="M408:N408"/>
+    <mergeCell ref="M409:N409"/>
+    <mergeCell ref="M410:N410"/>
+    <mergeCell ref="M411:N411"/>
+    <mergeCell ref="M412:N412"/>
+    <mergeCell ref="M413:N413"/>
+    <mergeCell ref="M414:N414"/>
+    <mergeCell ref="M397:N397"/>
+    <mergeCell ref="M398:N398"/>
+    <mergeCell ref="M399:N399"/>
+    <mergeCell ref="M400:N400"/>
+    <mergeCell ref="M401:N401"/>
+    <mergeCell ref="M402:N402"/>
+    <mergeCell ref="M403:N403"/>
+    <mergeCell ref="M404:N404"/>
+    <mergeCell ref="M405:N405"/>
+    <mergeCell ref="M388:N388"/>
+    <mergeCell ref="M389:N389"/>
+    <mergeCell ref="M390:N390"/>
+    <mergeCell ref="M391:N391"/>
+    <mergeCell ref="M392:N392"/>
+    <mergeCell ref="M393:N393"/>
+    <mergeCell ref="M394:N394"/>
+    <mergeCell ref="M395:N395"/>
+    <mergeCell ref="M396:N396"/>
+    <mergeCell ref="M379:N379"/>
+    <mergeCell ref="M380:N380"/>
+    <mergeCell ref="M381:N381"/>
+    <mergeCell ref="M382:N382"/>
+    <mergeCell ref="M383:N383"/>
+    <mergeCell ref="M384:N384"/>
+    <mergeCell ref="M385:N385"/>
+    <mergeCell ref="M386:N386"/>
+    <mergeCell ref="M387:N387"/>
+    <mergeCell ref="M370:N370"/>
+    <mergeCell ref="M371:N371"/>
+    <mergeCell ref="M372:N372"/>
+    <mergeCell ref="M373:N373"/>
+    <mergeCell ref="M374:N374"/>
+    <mergeCell ref="M375:N375"/>
+    <mergeCell ref="M376:N376"/>
+    <mergeCell ref="M377:N377"/>
+    <mergeCell ref="M378:N378"/>
+    <mergeCell ref="M361:N361"/>
+    <mergeCell ref="M362:N362"/>
+    <mergeCell ref="M363:N363"/>
+    <mergeCell ref="M364:N364"/>
+    <mergeCell ref="M365:N365"/>
+    <mergeCell ref="M366:N366"/>
+    <mergeCell ref="M367:N367"/>
+    <mergeCell ref="M368:N368"/>
+    <mergeCell ref="M369:N369"/>
+    <mergeCell ref="M352:N352"/>
+    <mergeCell ref="M353:N353"/>
+    <mergeCell ref="M354:N354"/>
+    <mergeCell ref="M355:N355"/>
+    <mergeCell ref="M356:N356"/>
+    <mergeCell ref="M357:N357"/>
+    <mergeCell ref="M358:N358"/>
+    <mergeCell ref="M359:N359"/>
+    <mergeCell ref="M360:N360"/>
+    <mergeCell ref="M343:N343"/>
+    <mergeCell ref="M344:N344"/>
+    <mergeCell ref="M345:N345"/>
+    <mergeCell ref="M346:N346"/>
+    <mergeCell ref="M347:N347"/>
+    <mergeCell ref="M348:N348"/>
+    <mergeCell ref="M349:N349"/>
+    <mergeCell ref="M350:N350"/>
+    <mergeCell ref="M351:N351"/>
+    <mergeCell ref="M334:N334"/>
+    <mergeCell ref="M335:N335"/>
+    <mergeCell ref="M336:N336"/>
+    <mergeCell ref="M337:N337"/>
+    <mergeCell ref="M338:N338"/>
+    <mergeCell ref="M339:N339"/>
+    <mergeCell ref="M340:N340"/>
+    <mergeCell ref="M341:N341"/>
+    <mergeCell ref="M342:N342"/>
+    <mergeCell ref="M325:N325"/>
+    <mergeCell ref="M326:N326"/>
+    <mergeCell ref="M327:N327"/>
+    <mergeCell ref="M328:N328"/>
+    <mergeCell ref="M329:N329"/>
+    <mergeCell ref="M330:N330"/>
+    <mergeCell ref="M331:N331"/>
+    <mergeCell ref="M332:N332"/>
+    <mergeCell ref="M333:N333"/>
+    <mergeCell ref="M316:N316"/>
+    <mergeCell ref="M317:N317"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="M319:N319"/>
+    <mergeCell ref="M320:N320"/>
+    <mergeCell ref="M321:N321"/>
+    <mergeCell ref="M322:N322"/>
+    <mergeCell ref="M323:N323"/>
+    <mergeCell ref="M324:N324"/>
+    <mergeCell ref="M307:N307"/>
+    <mergeCell ref="M308:N308"/>
+    <mergeCell ref="M309:N309"/>
+    <mergeCell ref="M310:N310"/>
+    <mergeCell ref="M311:N311"/>
+    <mergeCell ref="M312:N312"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="M314:N314"/>
+    <mergeCell ref="M315:N315"/>
+    <mergeCell ref="M298:N298"/>
+    <mergeCell ref="M299:N299"/>
+    <mergeCell ref="M300:N300"/>
+    <mergeCell ref="M301:N301"/>
+    <mergeCell ref="M302:N302"/>
+    <mergeCell ref="M303:N303"/>
+    <mergeCell ref="M304:N304"/>
+    <mergeCell ref="M305:N305"/>
+    <mergeCell ref="M306:N306"/>
+    <mergeCell ref="M289:N289"/>
+    <mergeCell ref="M290:N290"/>
+    <mergeCell ref="M291:N291"/>
+    <mergeCell ref="M292:N292"/>
+    <mergeCell ref="M293:N293"/>
+    <mergeCell ref="M294:N294"/>
+    <mergeCell ref="M295:N295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="M297:N297"/>
+    <mergeCell ref="M280:N280"/>
+    <mergeCell ref="M281:N281"/>
+    <mergeCell ref="M282:N282"/>
+    <mergeCell ref="M283:N283"/>
+    <mergeCell ref="M284:N284"/>
+    <mergeCell ref="M285:N285"/>
+    <mergeCell ref="M286:N286"/>
+    <mergeCell ref="M287:N287"/>
+    <mergeCell ref="M288:N288"/>
+    <mergeCell ref="M271:N271"/>
+    <mergeCell ref="M272:N272"/>
+    <mergeCell ref="M273:N273"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M275:N275"/>
+    <mergeCell ref="M276:N276"/>
+    <mergeCell ref="M277:N277"/>
+    <mergeCell ref="M278:N278"/>
+    <mergeCell ref="M279:N279"/>
     <mergeCell ref="M262:N262"/>
     <mergeCell ref="M263:N263"/>
     <mergeCell ref="M264:N264"/>
@@ -17333,744 +17809,267 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="M280:N280"/>
-    <mergeCell ref="M281:N281"/>
-    <mergeCell ref="M282:N282"/>
-    <mergeCell ref="M283:N283"/>
-    <mergeCell ref="M284:N284"/>
-    <mergeCell ref="M285:N285"/>
-    <mergeCell ref="M286:N286"/>
-    <mergeCell ref="M287:N287"/>
-    <mergeCell ref="M288:N288"/>
-    <mergeCell ref="M271:N271"/>
-    <mergeCell ref="M272:N272"/>
-    <mergeCell ref="M273:N273"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M275:N275"/>
-    <mergeCell ref="M276:N276"/>
-    <mergeCell ref="M277:N277"/>
-    <mergeCell ref="M278:N278"/>
-    <mergeCell ref="M279:N279"/>
-    <mergeCell ref="M298:N298"/>
-    <mergeCell ref="M299:N299"/>
-    <mergeCell ref="M300:N300"/>
-    <mergeCell ref="M301:N301"/>
-    <mergeCell ref="M302:N302"/>
-    <mergeCell ref="M303:N303"/>
-    <mergeCell ref="M304:N304"/>
-    <mergeCell ref="M305:N305"/>
-    <mergeCell ref="M306:N306"/>
-    <mergeCell ref="M289:N289"/>
-    <mergeCell ref="M290:N290"/>
-    <mergeCell ref="M291:N291"/>
-    <mergeCell ref="M292:N292"/>
-    <mergeCell ref="M293:N293"/>
-    <mergeCell ref="M294:N294"/>
-    <mergeCell ref="M295:N295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="M297:N297"/>
-    <mergeCell ref="M316:N316"/>
-    <mergeCell ref="M317:N317"/>
-    <mergeCell ref="M318:N318"/>
-    <mergeCell ref="M319:N319"/>
-    <mergeCell ref="M320:N320"/>
-    <mergeCell ref="M321:N321"/>
-    <mergeCell ref="M322:N322"/>
-    <mergeCell ref="M323:N323"/>
-    <mergeCell ref="M324:N324"/>
-    <mergeCell ref="M307:N307"/>
-    <mergeCell ref="M308:N308"/>
-    <mergeCell ref="M309:N309"/>
-    <mergeCell ref="M310:N310"/>
-    <mergeCell ref="M311:N311"/>
-    <mergeCell ref="M312:N312"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="M314:N314"/>
-    <mergeCell ref="M315:N315"/>
-    <mergeCell ref="M334:N334"/>
-    <mergeCell ref="M335:N335"/>
-    <mergeCell ref="M336:N336"/>
-    <mergeCell ref="M337:N337"/>
-    <mergeCell ref="M338:N338"/>
-    <mergeCell ref="M339:N339"/>
-    <mergeCell ref="M340:N340"/>
-    <mergeCell ref="M341:N341"/>
-    <mergeCell ref="M342:N342"/>
-    <mergeCell ref="M325:N325"/>
-    <mergeCell ref="M326:N326"/>
-    <mergeCell ref="M327:N327"/>
-    <mergeCell ref="M328:N328"/>
-    <mergeCell ref="M329:N329"/>
-    <mergeCell ref="M330:N330"/>
-    <mergeCell ref="M331:N331"/>
-    <mergeCell ref="M332:N332"/>
-    <mergeCell ref="M333:N333"/>
-    <mergeCell ref="M352:N352"/>
-    <mergeCell ref="M353:N353"/>
-    <mergeCell ref="M354:N354"/>
-    <mergeCell ref="M355:N355"/>
-    <mergeCell ref="M356:N356"/>
-    <mergeCell ref="M357:N357"/>
-    <mergeCell ref="M358:N358"/>
-    <mergeCell ref="M359:N359"/>
-    <mergeCell ref="M360:N360"/>
-    <mergeCell ref="M343:N343"/>
-    <mergeCell ref="M344:N344"/>
-    <mergeCell ref="M345:N345"/>
-    <mergeCell ref="M346:N346"/>
-    <mergeCell ref="M347:N347"/>
-    <mergeCell ref="M348:N348"/>
-    <mergeCell ref="M349:N349"/>
-    <mergeCell ref="M350:N350"/>
-    <mergeCell ref="M351:N351"/>
-    <mergeCell ref="M370:N370"/>
-    <mergeCell ref="M371:N371"/>
-    <mergeCell ref="M372:N372"/>
-    <mergeCell ref="M373:N373"/>
-    <mergeCell ref="M374:N374"/>
-    <mergeCell ref="M375:N375"/>
-    <mergeCell ref="M376:N376"/>
-    <mergeCell ref="M377:N377"/>
-    <mergeCell ref="M378:N378"/>
-    <mergeCell ref="M361:N361"/>
-    <mergeCell ref="M362:N362"/>
-    <mergeCell ref="M363:N363"/>
-    <mergeCell ref="M364:N364"/>
-    <mergeCell ref="M365:N365"/>
-    <mergeCell ref="M366:N366"/>
-    <mergeCell ref="M367:N367"/>
-    <mergeCell ref="M368:N368"/>
-    <mergeCell ref="M369:N369"/>
-    <mergeCell ref="M388:N388"/>
-    <mergeCell ref="M389:N389"/>
-    <mergeCell ref="M390:N390"/>
-    <mergeCell ref="M391:N391"/>
-    <mergeCell ref="M392:N392"/>
-    <mergeCell ref="M393:N393"/>
-    <mergeCell ref="M394:N394"/>
-    <mergeCell ref="M395:N395"/>
-    <mergeCell ref="M396:N396"/>
-    <mergeCell ref="M379:N379"/>
-    <mergeCell ref="M380:N380"/>
-    <mergeCell ref="M381:N381"/>
-    <mergeCell ref="M382:N382"/>
-    <mergeCell ref="M383:N383"/>
-    <mergeCell ref="M384:N384"/>
-    <mergeCell ref="M385:N385"/>
-    <mergeCell ref="M386:N386"/>
-    <mergeCell ref="M387:N387"/>
-    <mergeCell ref="M406:N406"/>
-    <mergeCell ref="M407:N407"/>
-    <mergeCell ref="M408:N408"/>
-    <mergeCell ref="M409:N409"/>
-    <mergeCell ref="M410:N410"/>
-    <mergeCell ref="M411:N411"/>
-    <mergeCell ref="M412:N412"/>
-    <mergeCell ref="M413:N413"/>
-    <mergeCell ref="M414:N414"/>
-    <mergeCell ref="M397:N397"/>
-    <mergeCell ref="M398:N398"/>
-    <mergeCell ref="M399:N399"/>
-    <mergeCell ref="M400:N400"/>
-    <mergeCell ref="M401:N401"/>
-    <mergeCell ref="M402:N402"/>
-    <mergeCell ref="M403:N403"/>
-    <mergeCell ref="M404:N404"/>
-    <mergeCell ref="M405:N405"/>
-    <mergeCell ref="M424:N424"/>
-    <mergeCell ref="M425:N425"/>
-    <mergeCell ref="M426:N426"/>
-    <mergeCell ref="M427:N427"/>
-    <mergeCell ref="M428:N428"/>
-    <mergeCell ref="M429:N429"/>
-    <mergeCell ref="M430:N430"/>
-    <mergeCell ref="M431:N431"/>
-    <mergeCell ref="M432:N432"/>
-    <mergeCell ref="M415:N415"/>
-    <mergeCell ref="M416:N416"/>
-    <mergeCell ref="M417:N417"/>
-    <mergeCell ref="M418:N418"/>
-    <mergeCell ref="M419:N419"/>
-    <mergeCell ref="M420:N420"/>
-    <mergeCell ref="M421:N421"/>
-    <mergeCell ref="M422:N422"/>
-    <mergeCell ref="M423:N423"/>
-    <mergeCell ref="M442:N442"/>
-    <mergeCell ref="M443:N443"/>
-    <mergeCell ref="M444:N444"/>
-    <mergeCell ref="M445:N445"/>
-    <mergeCell ref="M446:N446"/>
-    <mergeCell ref="M447:N447"/>
-    <mergeCell ref="M448:N448"/>
-    <mergeCell ref="M449:N449"/>
-    <mergeCell ref="M450:N450"/>
-    <mergeCell ref="M433:N433"/>
-    <mergeCell ref="M434:N434"/>
-    <mergeCell ref="M435:N435"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="M438:N438"/>
-    <mergeCell ref="M439:N439"/>
-    <mergeCell ref="M440:N440"/>
-    <mergeCell ref="M441:N441"/>
-    <mergeCell ref="M460:N460"/>
-    <mergeCell ref="M461:N461"/>
-    <mergeCell ref="M462:N462"/>
-    <mergeCell ref="M463:N463"/>
-    <mergeCell ref="M464:N464"/>
-    <mergeCell ref="M465:N465"/>
-    <mergeCell ref="M466:N466"/>
-    <mergeCell ref="M467:N467"/>
-    <mergeCell ref="M468:N468"/>
-    <mergeCell ref="M451:N451"/>
-    <mergeCell ref="M452:N452"/>
-    <mergeCell ref="M453:N453"/>
-    <mergeCell ref="M454:N454"/>
-    <mergeCell ref="M455:N455"/>
-    <mergeCell ref="M456:N456"/>
-    <mergeCell ref="M457:N457"/>
-    <mergeCell ref="M458:N458"/>
-    <mergeCell ref="M459:N459"/>
-    <mergeCell ref="M478:N478"/>
-    <mergeCell ref="M479:N479"/>
-    <mergeCell ref="M480:N480"/>
-    <mergeCell ref="M481:N481"/>
-    <mergeCell ref="M482:N482"/>
-    <mergeCell ref="M483:N483"/>
-    <mergeCell ref="M484:N484"/>
-    <mergeCell ref="M485:N485"/>
-    <mergeCell ref="M486:N486"/>
-    <mergeCell ref="M469:N469"/>
-    <mergeCell ref="M470:N470"/>
-    <mergeCell ref="M471:N471"/>
-    <mergeCell ref="M472:N472"/>
-    <mergeCell ref="M473:N473"/>
-    <mergeCell ref="M474:N474"/>
-    <mergeCell ref="M475:N475"/>
-    <mergeCell ref="M476:N476"/>
-    <mergeCell ref="M477:N477"/>
-    <mergeCell ref="M496:N496"/>
-    <mergeCell ref="M497:N497"/>
-    <mergeCell ref="M498:N498"/>
-    <mergeCell ref="M499:N499"/>
-    <mergeCell ref="M500:N500"/>
-    <mergeCell ref="M501:N501"/>
-    <mergeCell ref="M502:N502"/>
-    <mergeCell ref="M503:N503"/>
-    <mergeCell ref="M504:N504"/>
-    <mergeCell ref="M487:N487"/>
-    <mergeCell ref="M488:N488"/>
-    <mergeCell ref="M489:N489"/>
-    <mergeCell ref="M490:N490"/>
-    <mergeCell ref="M491:N491"/>
-    <mergeCell ref="M492:N492"/>
-    <mergeCell ref="M493:N493"/>
-    <mergeCell ref="M494:N494"/>
-    <mergeCell ref="M495:N495"/>
-    <mergeCell ref="M514:N514"/>
-    <mergeCell ref="M515:N515"/>
-    <mergeCell ref="M516:N516"/>
-    <mergeCell ref="M517:N517"/>
-    <mergeCell ref="M518:N518"/>
-    <mergeCell ref="M519:N519"/>
-    <mergeCell ref="M520:N520"/>
-    <mergeCell ref="M521:N521"/>
-    <mergeCell ref="M522:N522"/>
-    <mergeCell ref="M505:N505"/>
-    <mergeCell ref="M506:N506"/>
-    <mergeCell ref="M507:N507"/>
-    <mergeCell ref="M508:N508"/>
-    <mergeCell ref="M509:N509"/>
-    <mergeCell ref="M510:N510"/>
-    <mergeCell ref="M511:N511"/>
-    <mergeCell ref="M512:N512"/>
-    <mergeCell ref="M513:N513"/>
-    <mergeCell ref="M532:N532"/>
-    <mergeCell ref="M533:N533"/>
-    <mergeCell ref="M534:N534"/>
-    <mergeCell ref="M535:N535"/>
-    <mergeCell ref="M536:N536"/>
-    <mergeCell ref="M537:N537"/>
-    <mergeCell ref="M538:N538"/>
-    <mergeCell ref="M539:N539"/>
-    <mergeCell ref="M540:N540"/>
-    <mergeCell ref="M523:N523"/>
-    <mergeCell ref="M524:N524"/>
-    <mergeCell ref="M525:N525"/>
-    <mergeCell ref="M526:N526"/>
-    <mergeCell ref="M527:N527"/>
-    <mergeCell ref="M528:N528"/>
-    <mergeCell ref="M529:N529"/>
-    <mergeCell ref="M530:N530"/>
-    <mergeCell ref="M531:N531"/>
-    <mergeCell ref="M550:N550"/>
-    <mergeCell ref="M551:N551"/>
-    <mergeCell ref="M552:N552"/>
-    <mergeCell ref="M553:N553"/>
-    <mergeCell ref="M554:N554"/>
-    <mergeCell ref="M555:N555"/>
-    <mergeCell ref="M556:N556"/>
-    <mergeCell ref="M557:N557"/>
-    <mergeCell ref="M558:N558"/>
-    <mergeCell ref="M541:N541"/>
-    <mergeCell ref="M542:N542"/>
-    <mergeCell ref="M543:N543"/>
-    <mergeCell ref="M544:N544"/>
-    <mergeCell ref="M545:N545"/>
-    <mergeCell ref="M546:N546"/>
-    <mergeCell ref="M547:N547"/>
-    <mergeCell ref="M548:N548"/>
-    <mergeCell ref="M549:N549"/>
-    <mergeCell ref="M568:N568"/>
-    <mergeCell ref="M569:N569"/>
-    <mergeCell ref="M570:N570"/>
-    <mergeCell ref="M571:N571"/>
-    <mergeCell ref="M572:N572"/>
-    <mergeCell ref="M573:N573"/>
-    <mergeCell ref="M574:N574"/>
-    <mergeCell ref="M575:N575"/>
-    <mergeCell ref="M576:N576"/>
-    <mergeCell ref="M559:N559"/>
-    <mergeCell ref="M560:N560"/>
-    <mergeCell ref="M561:N561"/>
-    <mergeCell ref="M562:N562"/>
-    <mergeCell ref="M563:N563"/>
-    <mergeCell ref="M564:N564"/>
-    <mergeCell ref="M565:N565"/>
-    <mergeCell ref="M566:N566"/>
-    <mergeCell ref="M567:N567"/>
-    <mergeCell ref="M586:N586"/>
-    <mergeCell ref="M587:N587"/>
-    <mergeCell ref="M588:N588"/>
-    <mergeCell ref="M589:N589"/>
-    <mergeCell ref="M590:N590"/>
-    <mergeCell ref="M591:N591"/>
-    <mergeCell ref="M592:N592"/>
-    <mergeCell ref="M593:N593"/>
-    <mergeCell ref="M594:N594"/>
-    <mergeCell ref="M577:N577"/>
-    <mergeCell ref="M578:N578"/>
-    <mergeCell ref="M579:N579"/>
-    <mergeCell ref="M580:N580"/>
-    <mergeCell ref="M581:N581"/>
-    <mergeCell ref="M582:N582"/>
-    <mergeCell ref="M583:N583"/>
-    <mergeCell ref="M584:N584"/>
-    <mergeCell ref="M585:N585"/>
-    <mergeCell ref="M604:N604"/>
-    <mergeCell ref="M605:N605"/>
-    <mergeCell ref="M606:N606"/>
-    <mergeCell ref="M607:N607"/>
-    <mergeCell ref="M608:N608"/>
-    <mergeCell ref="M609:N609"/>
-    <mergeCell ref="M610:N610"/>
-    <mergeCell ref="M611:N611"/>
-    <mergeCell ref="M612:N612"/>
-    <mergeCell ref="M595:N595"/>
-    <mergeCell ref="M596:N596"/>
-    <mergeCell ref="M597:N597"/>
-    <mergeCell ref="M598:N598"/>
-    <mergeCell ref="M599:N599"/>
-    <mergeCell ref="M600:N600"/>
-    <mergeCell ref="M601:N601"/>
-    <mergeCell ref="M602:N602"/>
-    <mergeCell ref="M603:N603"/>
-    <mergeCell ref="M622:N622"/>
-    <mergeCell ref="M623:N623"/>
-    <mergeCell ref="M624:N624"/>
-    <mergeCell ref="M625:N625"/>
-    <mergeCell ref="M626:N626"/>
-    <mergeCell ref="M627:N627"/>
-    <mergeCell ref="M628:N628"/>
-    <mergeCell ref="M629:N629"/>
-    <mergeCell ref="M630:N630"/>
-    <mergeCell ref="M613:N613"/>
-    <mergeCell ref="M614:N614"/>
-    <mergeCell ref="M615:N615"/>
-    <mergeCell ref="M616:N616"/>
-    <mergeCell ref="M617:N617"/>
-    <mergeCell ref="M618:N618"/>
-    <mergeCell ref="M619:N619"/>
-    <mergeCell ref="M620:N620"/>
-    <mergeCell ref="M621:N621"/>
-    <mergeCell ref="M640:N640"/>
-    <mergeCell ref="M641:N641"/>
-    <mergeCell ref="M642:N642"/>
-    <mergeCell ref="M643:N643"/>
-    <mergeCell ref="M644:N644"/>
-    <mergeCell ref="M645:N645"/>
-    <mergeCell ref="M646:N646"/>
-    <mergeCell ref="M647:N647"/>
-    <mergeCell ref="M648:N648"/>
-    <mergeCell ref="M631:N631"/>
-    <mergeCell ref="M632:N632"/>
-    <mergeCell ref="M633:N633"/>
-    <mergeCell ref="M634:N634"/>
-    <mergeCell ref="M635:N635"/>
-    <mergeCell ref="M636:N636"/>
-    <mergeCell ref="M637:N637"/>
-    <mergeCell ref="M638:N638"/>
-    <mergeCell ref="M639:N639"/>
-    <mergeCell ref="M658:N658"/>
-    <mergeCell ref="M659:N659"/>
-    <mergeCell ref="M660:N660"/>
-    <mergeCell ref="M661:N661"/>
-    <mergeCell ref="M662:N662"/>
-    <mergeCell ref="M663:N663"/>
-    <mergeCell ref="M664:N664"/>
-    <mergeCell ref="M665:N665"/>
-    <mergeCell ref="M666:N666"/>
-    <mergeCell ref="M649:N649"/>
-    <mergeCell ref="M650:N650"/>
-    <mergeCell ref="M651:N651"/>
-    <mergeCell ref="M652:N652"/>
-    <mergeCell ref="M653:N653"/>
-    <mergeCell ref="M654:N654"/>
-    <mergeCell ref="M655:N655"/>
-    <mergeCell ref="M656:N656"/>
-    <mergeCell ref="M657:N657"/>
-    <mergeCell ref="M676:N676"/>
-    <mergeCell ref="M677:N677"/>
-    <mergeCell ref="M678:N678"/>
-    <mergeCell ref="M679:N679"/>
-    <mergeCell ref="M680:N680"/>
-    <mergeCell ref="M681:N681"/>
-    <mergeCell ref="M682:N682"/>
-    <mergeCell ref="M683:N683"/>
-    <mergeCell ref="M684:N684"/>
-    <mergeCell ref="M667:N667"/>
-    <mergeCell ref="M668:N668"/>
-    <mergeCell ref="M669:N669"/>
-    <mergeCell ref="M670:N670"/>
-    <mergeCell ref="M671:N671"/>
-    <mergeCell ref="M672:N672"/>
-    <mergeCell ref="M673:N673"/>
-    <mergeCell ref="M674:N674"/>
-    <mergeCell ref="M675:N675"/>
-    <mergeCell ref="M694:N694"/>
-    <mergeCell ref="M695:N695"/>
-    <mergeCell ref="M696:N696"/>
-    <mergeCell ref="M697:N697"/>
-    <mergeCell ref="M698:N698"/>
-    <mergeCell ref="M699:N699"/>
-    <mergeCell ref="M700:N700"/>
-    <mergeCell ref="M701:N701"/>
-    <mergeCell ref="M702:N702"/>
-    <mergeCell ref="M685:N685"/>
-    <mergeCell ref="M686:N686"/>
-    <mergeCell ref="M687:N687"/>
-    <mergeCell ref="M688:N688"/>
-    <mergeCell ref="M689:N689"/>
-    <mergeCell ref="M690:N690"/>
-    <mergeCell ref="M691:N691"/>
-    <mergeCell ref="M692:N692"/>
-    <mergeCell ref="M693:N693"/>
-    <mergeCell ref="M712:N712"/>
-    <mergeCell ref="M713:N713"/>
-    <mergeCell ref="M714:N714"/>
-    <mergeCell ref="M715:N715"/>
-    <mergeCell ref="M716:N716"/>
-    <mergeCell ref="M717:N717"/>
-    <mergeCell ref="M718:N718"/>
-    <mergeCell ref="M719:N719"/>
-    <mergeCell ref="M720:N720"/>
-    <mergeCell ref="M703:N703"/>
-    <mergeCell ref="M704:N704"/>
-    <mergeCell ref="M705:N705"/>
-    <mergeCell ref="M706:N706"/>
-    <mergeCell ref="M707:N707"/>
-    <mergeCell ref="M708:N708"/>
-    <mergeCell ref="M709:N709"/>
-    <mergeCell ref="M710:N710"/>
-    <mergeCell ref="M711:N711"/>
-    <mergeCell ref="M730:N730"/>
-    <mergeCell ref="M731:N731"/>
-    <mergeCell ref="M732:N732"/>
-    <mergeCell ref="M733:N733"/>
-    <mergeCell ref="M734:N734"/>
-    <mergeCell ref="M735:N735"/>
-    <mergeCell ref="M736:N736"/>
-    <mergeCell ref="M737:N737"/>
-    <mergeCell ref="M738:N738"/>
-    <mergeCell ref="M721:N721"/>
-    <mergeCell ref="M722:N722"/>
-    <mergeCell ref="M723:N723"/>
-    <mergeCell ref="M724:N724"/>
-    <mergeCell ref="M725:N725"/>
-    <mergeCell ref="M726:N726"/>
-    <mergeCell ref="M727:N727"/>
-    <mergeCell ref="M728:N728"/>
-    <mergeCell ref="M729:N729"/>
-    <mergeCell ref="M748:N748"/>
-    <mergeCell ref="M749:N749"/>
-    <mergeCell ref="M750:N750"/>
-    <mergeCell ref="M751:N751"/>
-    <mergeCell ref="M752:N752"/>
-    <mergeCell ref="M753:N753"/>
-    <mergeCell ref="M754:N754"/>
-    <mergeCell ref="M755:N755"/>
-    <mergeCell ref="M756:N756"/>
-    <mergeCell ref="M739:N739"/>
-    <mergeCell ref="M740:N740"/>
-    <mergeCell ref="M741:N741"/>
-    <mergeCell ref="M742:N742"/>
-    <mergeCell ref="M743:N743"/>
-    <mergeCell ref="M744:N744"/>
-    <mergeCell ref="M745:N745"/>
-    <mergeCell ref="M746:N746"/>
-    <mergeCell ref="M747:N747"/>
-    <mergeCell ref="M766:N766"/>
-    <mergeCell ref="M767:N767"/>
-    <mergeCell ref="M768:N768"/>
-    <mergeCell ref="M769:N769"/>
-    <mergeCell ref="M770:N770"/>
-    <mergeCell ref="M771:N771"/>
-    <mergeCell ref="M772:N772"/>
-    <mergeCell ref="M773:N773"/>
-    <mergeCell ref="M774:N774"/>
-    <mergeCell ref="M757:N757"/>
-    <mergeCell ref="M758:N758"/>
-    <mergeCell ref="M759:N759"/>
-    <mergeCell ref="M760:N760"/>
-    <mergeCell ref="M761:N761"/>
-    <mergeCell ref="M762:N762"/>
-    <mergeCell ref="M763:N763"/>
-    <mergeCell ref="M764:N764"/>
-    <mergeCell ref="M765:N765"/>
-    <mergeCell ref="M784:N784"/>
-    <mergeCell ref="M785:N785"/>
-    <mergeCell ref="M786:N786"/>
-    <mergeCell ref="M787:N787"/>
-    <mergeCell ref="M788:N788"/>
-    <mergeCell ref="M789:N789"/>
-    <mergeCell ref="M790:N790"/>
-    <mergeCell ref="M791:N791"/>
-    <mergeCell ref="M792:N792"/>
-    <mergeCell ref="M775:N775"/>
-    <mergeCell ref="M776:N776"/>
-    <mergeCell ref="M777:N777"/>
-    <mergeCell ref="M778:N778"/>
-    <mergeCell ref="M779:N779"/>
-    <mergeCell ref="M780:N780"/>
-    <mergeCell ref="M781:N781"/>
-    <mergeCell ref="M782:N782"/>
-    <mergeCell ref="M783:N783"/>
-    <mergeCell ref="M802:N802"/>
-    <mergeCell ref="M803:N803"/>
-    <mergeCell ref="M804:N804"/>
-    <mergeCell ref="M805:N805"/>
-    <mergeCell ref="M806:N806"/>
-    <mergeCell ref="M807:N807"/>
-    <mergeCell ref="M808:N808"/>
-    <mergeCell ref="M809:N809"/>
-    <mergeCell ref="M810:N810"/>
-    <mergeCell ref="M793:N793"/>
-    <mergeCell ref="M794:N794"/>
-    <mergeCell ref="M795:N795"/>
-    <mergeCell ref="M796:N796"/>
-    <mergeCell ref="M797:N797"/>
-    <mergeCell ref="M798:N798"/>
-    <mergeCell ref="M799:N799"/>
-    <mergeCell ref="M800:N800"/>
-    <mergeCell ref="M801:N801"/>
-    <mergeCell ref="M820:N820"/>
-    <mergeCell ref="M821:N821"/>
-    <mergeCell ref="M822:N822"/>
-    <mergeCell ref="M823:N823"/>
-    <mergeCell ref="M824:N824"/>
-    <mergeCell ref="M825:N825"/>
-    <mergeCell ref="M826:N826"/>
-    <mergeCell ref="M827:N827"/>
-    <mergeCell ref="M828:N828"/>
-    <mergeCell ref="M811:N811"/>
-    <mergeCell ref="M812:N812"/>
-    <mergeCell ref="M813:N813"/>
-    <mergeCell ref="M814:N814"/>
-    <mergeCell ref="M815:N815"/>
-    <mergeCell ref="M816:N816"/>
-    <mergeCell ref="M817:N817"/>
-    <mergeCell ref="M818:N818"/>
-    <mergeCell ref="M819:N819"/>
-    <mergeCell ref="M838:N838"/>
-    <mergeCell ref="M839:N839"/>
-    <mergeCell ref="M840:N840"/>
-    <mergeCell ref="M841:N841"/>
-    <mergeCell ref="M842:N842"/>
-    <mergeCell ref="M843:N843"/>
-    <mergeCell ref="M844:N844"/>
-    <mergeCell ref="M845:N845"/>
-    <mergeCell ref="M846:N846"/>
-    <mergeCell ref="M829:N829"/>
-    <mergeCell ref="M830:N830"/>
-    <mergeCell ref="M831:N831"/>
-    <mergeCell ref="M832:N832"/>
-    <mergeCell ref="M833:N833"/>
-    <mergeCell ref="M834:N834"/>
-    <mergeCell ref="M835:N835"/>
-    <mergeCell ref="M836:N836"/>
-    <mergeCell ref="M837:N837"/>
-    <mergeCell ref="M856:N856"/>
-    <mergeCell ref="M857:N857"/>
-    <mergeCell ref="M858:N858"/>
-    <mergeCell ref="M859:N859"/>
-    <mergeCell ref="M860:N860"/>
-    <mergeCell ref="M861:N861"/>
-    <mergeCell ref="M862:N862"/>
-    <mergeCell ref="M863:N863"/>
-    <mergeCell ref="M864:N864"/>
-    <mergeCell ref="M847:N847"/>
-    <mergeCell ref="M848:N848"/>
-    <mergeCell ref="M849:N849"/>
-    <mergeCell ref="M850:N850"/>
-    <mergeCell ref="M851:N851"/>
-    <mergeCell ref="M852:N852"/>
-    <mergeCell ref="M853:N853"/>
-    <mergeCell ref="M854:N854"/>
-    <mergeCell ref="M855:N855"/>
-    <mergeCell ref="M874:N874"/>
-    <mergeCell ref="M875:N875"/>
-    <mergeCell ref="M876:N876"/>
-    <mergeCell ref="M877:N877"/>
-    <mergeCell ref="M878:N878"/>
-    <mergeCell ref="M879:N879"/>
-    <mergeCell ref="M880:N880"/>
-    <mergeCell ref="M881:N881"/>
-    <mergeCell ref="M882:N882"/>
-    <mergeCell ref="M865:N865"/>
-    <mergeCell ref="M866:N866"/>
-    <mergeCell ref="M867:N867"/>
-    <mergeCell ref="M868:N868"/>
-    <mergeCell ref="M869:N869"/>
-    <mergeCell ref="M870:N870"/>
-    <mergeCell ref="M871:N871"/>
-    <mergeCell ref="M872:N872"/>
-    <mergeCell ref="M873:N873"/>
-    <mergeCell ref="M892:N892"/>
-    <mergeCell ref="M893:N893"/>
-    <mergeCell ref="M894:N894"/>
-    <mergeCell ref="M895:N895"/>
-    <mergeCell ref="M896:N896"/>
-    <mergeCell ref="M897:N897"/>
-    <mergeCell ref="M898:N898"/>
-    <mergeCell ref="M899:N899"/>
-    <mergeCell ref="M900:N900"/>
-    <mergeCell ref="M883:N883"/>
-    <mergeCell ref="M884:N884"/>
-    <mergeCell ref="M885:N885"/>
-    <mergeCell ref="M886:N886"/>
-    <mergeCell ref="M887:N887"/>
-    <mergeCell ref="M888:N888"/>
-    <mergeCell ref="M889:N889"/>
-    <mergeCell ref="M890:N890"/>
-    <mergeCell ref="M891:N891"/>
-    <mergeCell ref="M910:N910"/>
-    <mergeCell ref="M911:N911"/>
-    <mergeCell ref="M912:N912"/>
-    <mergeCell ref="M913:N913"/>
-    <mergeCell ref="M914:N914"/>
-    <mergeCell ref="M915:N915"/>
-    <mergeCell ref="M916:N916"/>
-    <mergeCell ref="M917:N917"/>
-    <mergeCell ref="M918:N918"/>
-    <mergeCell ref="M901:N901"/>
-    <mergeCell ref="M902:N902"/>
-    <mergeCell ref="M903:N903"/>
-    <mergeCell ref="M904:N904"/>
-    <mergeCell ref="M905:N905"/>
-    <mergeCell ref="M906:N906"/>
-    <mergeCell ref="M907:N907"/>
-    <mergeCell ref="M908:N908"/>
-    <mergeCell ref="M909:N909"/>
-    <mergeCell ref="M928:N928"/>
-    <mergeCell ref="M929:N929"/>
-    <mergeCell ref="M930:N930"/>
-    <mergeCell ref="M931:N931"/>
-    <mergeCell ref="M932:N932"/>
-    <mergeCell ref="M933:N933"/>
-    <mergeCell ref="M934:N934"/>
-    <mergeCell ref="M935:N935"/>
-    <mergeCell ref="M936:N936"/>
-    <mergeCell ref="M919:N919"/>
-    <mergeCell ref="M920:N920"/>
-    <mergeCell ref="M921:N921"/>
-    <mergeCell ref="M922:N922"/>
-    <mergeCell ref="M923:N923"/>
-    <mergeCell ref="M924:N924"/>
-    <mergeCell ref="M925:N925"/>
-    <mergeCell ref="M926:N926"/>
-    <mergeCell ref="M927:N927"/>
-    <mergeCell ref="M946:N946"/>
-    <mergeCell ref="M947:N947"/>
-    <mergeCell ref="M948:N948"/>
-    <mergeCell ref="M949:N949"/>
-    <mergeCell ref="M950:N950"/>
-    <mergeCell ref="M951:N951"/>
-    <mergeCell ref="M952:N952"/>
-    <mergeCell ref="M953:N953"/>
-    <mergeCell ref="M954:N954"/>
-    <mergeCell ref="M937:N937"/>
-    <mergeCell ref="M938:N938"/>
-    <mergeCell ref="M939:N939"/>
-    <mergeCell ref="M940:N940"/>
-    <mergeCell ref="M941:N941"/>
-    <mergeCell ref="M942:N942"/>
-    <mergeCell ref="M943:N943"/>
-    <mergeCell ref="M944:N944"/>
-    <mergeCell ref="M945:N945"/>
-    <mergeCell ref="M964:N964"/>
-    <mergeCell ref="M965:N965"/>
-    <mergeCell ref="M966:N966"/>
-    <mergeCell ref="M967:N967"/>
-    <mergeCell ref="M968:N968"/>
-    <mergeCell ref="M969:N969"/>
-    <mergeCell ref="M970:N970"/>
-    <mergeCell ref="M971:N971"/>
-    <mergeCell ref="M972:N972"/>
-    <mergeCell ref="M955:N955"/>
-    <mergeCell ref="M956:N956"/>
-    <mergeCell ref="M957:N957"/>
-    <mergeCell ref="M958:N958"/>
-    <mergeCell ref="M959:N959"/>
-    <mergeCell ref="M960:N960"/>
-    <mergeCell ref="M961:N961"/>
-    <mergeCell ref="M962:N962"/>
-    <mergeCell ref="M963:N963"/>
-    <mergeCell ref="M982:N982"/>
-    <mergeCell ref="M983:N983"/>
-    <mergeCell ref="M984:N984"/>
-    <mergeCell ref="M985:N985"/>
-    <mergeCell ref="M986:N986"/>
-    <mergeCell ref="M987:N987"/>
-    <mergeCell ref="M988:N988"/>
-    <mergeCell ref="M989:N989"/>
-    <mergeCell ref="M990:N990"/>
-    <mergeCell ref="M973:N973"/>
-    <mergeCell ref="M974:N974"/>
-    <mergeCell ref="M975:N975"/>
-    <mergeCell ref="M976:N976"/>
-    <mergeCell ref="M977:N977"/>
-    <mergeCell ref="M978:N978"/>
-    <mergeCell ref="M979:N979"/>
-    <mergeCell ref="M980:N980"/>
-    <mergeCell ref="M981:N981"/>
-    <mergeCell ref="M1000:N1000"/>
-    <mergeCell ref="M1001:N1001"/>
-    <mergeCell ref="M1002:N1002"/>
-    <mergeCell ref="M1003:N1003"/>
-    <mergeCell ref="M1004:N1004"/>
-    <mergeCell ref="M1005:N1005"/>
-    <mergeCell ref="M1006:N1006"/>
-    <mergeCell ref="M1007:N1007"/>
-    <mergeCell ref="M1008:N1008"/>
-    <mergeCell ref="M991:N991"/>
-    <mergeCell ref="M992:N992"/>
-    <mergeCell ref="M993:N993"/>
-    <mergeCell ref="M994:N994"/>
-    <mergeCell ref="M995:N995"/>
-    <mergeCell ref="M996:N996"/>
-    <mergeCell ref="M997:N997"/>
-    <mergeCell ref="M998:N998"/>
-    <mergeCell ref="M999:N999"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M14:N17"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="M209:N209"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="M207:N207"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="M220:N220"/>
+    <mergeCell ref="M221:N221"/>
+    <mergeCell ref="M222:N222"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="M214:N214"/>
+    <mergeCell ref="M215:N215"/>
+    <mergeCell ref="M216:N216"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="M228:N228"/>
+    <mergeCell ref="M229:N229"/>
+    <mergeCell ref="M230:N230"/>
+    <mergeCell ref="M231:N231"/>
+    <mergeCell ref="M232:N232"/>
+    <mergeCell ref="M223:N223"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="M225:N225"/>
+    <mergeCell ref="M226:N226"/>
+    <mergeCell ref="M227:N227"/>
+    <mergeCell ref="M238:N238"/>
+    <mergeCell ref="M239:N239"/>
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="M241:N241"/>
+    <mergeCell ref="M242:N242"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="M234:N234"/>
+    <mergeCell ref="M235:N235"/>
+    <mergeCell ref="M236:N236"/>
+    <mergeCell ref="M237:N237"/>
+    <mergeCell ref="M248:N248"/>
+    <mergeCell ref="M249:N249"/>
+    <mergeCell ref="M250:N250"/>
+    <mergeCell ref="M251:N251"/>
+    <mergeCell ref="M252:N252"/>
+    <mergeCell ref="M243:N243"/>
+    <mergeCell ref="M244:N244"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="M246:N246"/>
+    <mergeCell ref="M247:N247"/>
+    <mergeCell ref="M258:N258"/>
+    <mergeCell ref="M259:N259"/>
+    <mergeCell ref="M260:N260"/>
+    <mergeCell ref="M261:N261"/>
+    <mergeCell ref="M253:N253"/>
+    <mergeCell ref="M254:N254"/>
+    <mergeCell ref="M255:N255"/>
+    <mergeCell ref="M256:N256"/>
+    <mergeCell ref="M257:N257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18079,7 +18078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18096,7 +18095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5043EF25-51C7-4587-9FB2-791F3D1DF932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1008"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18141,15 +18140,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -18157,15 +18156,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -18173,15 +18172,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -18189,15 +18188,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -18205,15 +18204,15 @@
         <v>8</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18221,15 +18220,15 @@
         <v>10</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -18237,15 +18236,15 @@
         <v>11</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -18253,15 +18252,15 @@
         <v>12</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -18269,22 +18268,22 @@
         <v>14</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="K11" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -18292,18 +18291,18 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23263,36 +23262,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23301,10 +23300,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D552E7FF-7F3B-4C9E-83F0-7340BDA09608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
@@ -23346,15 +23345,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -23362,15 +23361,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -23378,15 +23377,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -23394,15 +23393,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -23410,15 +23409,15 @@
         <v>8</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23426,15 +23425,15 @@
         <v>10</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -23442,15 +23441,15 @@
         <v>11</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -23458,15 +23457,15 @@
         <v>12</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
@@ -23474,22 +23473,22 @@
         <v>14</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="K11" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -23497,18 +23496,18 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28468,36 +28467,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
